--- a/test_info/data/HU1-001/CP-004/objects.xlsx
+++ b/test_info/data/HU1-001/CP-004/objects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan_piedrahita\Documents\jp\bvc\tests\A2censoTest\test_info\data\HU1-001\CP-004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70F83AA-3BDE-467C-A04B-373A1C731FFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB9B593-4BB5-4BC0-B393-BC1750BAE451}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{58DB2863-25CE-48F2-AA27-D6192448486C}"/>
   </bookViews>
@@ -90,15 +90,9 @@
     <t>bvc_product_icon</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[5]/div[2]/div[2]/img</t>
-  </si>
-  <si>
     <t>idb_icon</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[8]/div[2]/div/div[1]/img</t>
-  </si>
-  <si>
     <t>mintic_icon</t>
   </si>
   <si>
@@ -108,15 +102,6 @@
     <t>copyright</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[8]/div[2]/div/div[2]/img</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[8]/div[2]/div/div[3]/img</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[9]/p</t>
-  </si>
-  <si>
     <t>twitter_icon</t>
   </si>
   <si>
@@ -129,49 +114,64 @@
     <t>youtube_icon</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[3]/div[2]/div[2]/div/div[1]/img</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[3]/div[2]/div[2]/div/div[2]/img</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[3]/div[2]/div[2]/div/div[3]/img</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[3]/div[2]/div[2]/div/div[4]/img</t>
-  </si>
-  <si>
     <t>footer_header_producto</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[2]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[5]/ul/li[1]</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[3]/span</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[2]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[2]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[2]/ul/li[4]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[2]/ul/li[5]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[5]/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[5]/ul/li[3]/a</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div/section/section[7]/div/div[1]/div[2]/div[1]/div[5]/ul/li[4]/a</t>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[1]</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[3]/div/div[2]/span</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[2]/ul/li[5]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[3]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[2]/div[1]/div[5]/ul/li[4]/a</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[3]/div/div[5]/div[2]/div/div[1]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[3]/div/div[5]/div[2]/div/div[2]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[3]/div/div[5]/div[2]/div/div[3]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[1]/div[3]/div/div[5]/div[2]/div/div[4]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[5]/div[2]/div[2]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[8]/div[2]/div/div[1]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[8]/div[2]/div/div[3]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[8]/div[2]/div/div[2]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="footer"]/div[9]</t>
   </si>
 </sst>
 </file>
@@ -526,14 +526,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE08B081-540D-41FE-A0DF-5A4050755188}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +552,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
@@ -572,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -628,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -656,7 +656,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -669,8 +669,8 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>44</v>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -683,8 +683,8 @@
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>5</v>
@@ -697,8 +697,8 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
-        <v>45</v>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -711,8 +711,8 @@
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -725,8 +725,8 @@
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>5</v>
@@ -739,8 +739,8 @@
       <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>48</v>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
@@ -748,13 +748,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -762,13 +762,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -776,13 +776,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>5</v>
@@ -790,13 +790,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -818,13 +818,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -846,13 +846,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>5</v>
